--- a/basics/passing_arrays.xlsx
+++ b/basics/passing_arrays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\xlslim-code-samples\basics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB4E60E-BBD4-4510-B3CA-4C602625D1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36552C4A-2CFB-4EE1-9A38-A9B69FC363AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2683" yWindow="2357" windowWidth="29426" windowHeight="13149" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{257F9B7E-B69A-46EF-8C88-E8306DB661FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -279,6 +279,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -297,8 +299,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent5" xfId="2" builtinId="47"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:CW20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -636,8 +636,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="B1" ca="1">LEFT(CELL("filename",B1),FIND("[",CELL("filename",B1))-1)</f>
-        <v>D:\github\xlslim-code-samples\basics\</v>
+        <f t="array" ref="B1">_xll.WorkbookLocation()</f>
+        <v>D:\github\xlslim-code-samples\basics</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f ca="1">B1&amp;"passing_arrays.py"</f>
+        <f>B1&amp;"\passing_arrays.py"</f>
         <v>D:\github\xlslim-code-samples\basics\passing_arrays.py</v>
       </c>
       <c r="G2" s="1"/>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="str" cm="1">
-        <f t="array" aca="1" ref="B3" ca="1">_xll.RegisterPyModule(B2,,"py_")</f>
+        <f t="array" ref="B3">_xll.RegisterPyModule(B2,,"py_")</f>
         <v>Registered D:\github\xlslim-code-samples\basics\passing_arrays.py</v>
       </c>
       <c r="G3" s="1"/>
@@ -665,405 +665,405 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" cm="1">
+      <c r="B5" s="7" cm="1">
         <f t="array" aca="1" ref="B5:CW5" ca="1">_xlfn.RANDARRAY(1,100,1,10,TRUE)</f>
+        <v>6</v>
+      </c>
+      <c r="C5" s="7">
+        <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="C5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="D5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="F5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="G5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="J5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="K5" s="7">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="E5" s="13">
+      <c r="L5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="N5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="O5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="P5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="R5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="S5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="T5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="U5" s="7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="V5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="W5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="X5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA5" s="7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AB5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AD5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE5" s="7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="AF5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AG5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AH5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="AI5" s="7">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="F5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="AJ5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="AK5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AL5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="AM5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="AN5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AO5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="AP5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="AQ5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AR5" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AT5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="AU5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="AV5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AW5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="AX5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="AY5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="AZ5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="BA5" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="BB5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="BC5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="BD5" s="7">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="H5" s="13">
+      <c r="BE5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="BF5" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="BG5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="BH5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="BI5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="BK5" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="BL5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="BM5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="BN5" s="7">
+        <f ca="1"/>
+        <v>5</v>
+      </c>
+      <c r="BO5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="BP5" s="7">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="I5" s="13">
+      <c r="BQ5" s="7">
         <f ca="1"/>
         <v>9</v>
       </c>
-      <c r="J5" s="13">
+      <c r="BR5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="BS5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="BT5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="BU5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="BV5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="BW5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="BX5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="BY5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="BZ5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="CA5" s="7">
+        <f ca="1"/>
+        <v>7</v>
+      </c>
+      <c r="CB5" s="7">
+        <f ca="1"/>
+        <v>3</v>
+      </c>
+      <c r="CC5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="CD5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="CE5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="CF5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="CG5" s="7">
+        <f ca="1"/>
+        <v>4</v>
+      </c>
+      <c r="CH5" s="7">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="CI5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="CJ5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="CK5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="CL5" s="7">
         <f ca="1"/>
         <v>5</v>
       </c>
-      <c r="K5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="L5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="M5" s="13">
+      <c r="CM5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="CN5" s="7">
+        <f ca="1"/>
+        <v>9</v>
+      </c>
+      <c r="CO5" s="7">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="N5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="CP5" s="7">
+        <f ca="1"/>
+        <v>8</v>
+      </c>
+      <c r="CQ5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="CR5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="CS5" s="7">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="CT5" s="7">
         <f ca="1"/>
         <v>7</v>
       </c>
-      <c r="P5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="R5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="S5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="T5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="U5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="V5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="W5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="Y5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="Z5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="AA5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AB5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="AC5" s="13">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="AD5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AE5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AF5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="AG5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="AH5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AI5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="AJ5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AK5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="AL5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AM5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AN5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AO5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="AP5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AR5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AS5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="AT5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="AU5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="AV5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AW5" s="13">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="AX5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="AY5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="AZ5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="BA5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="BB5" s="13">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="BC5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="BD5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="BE5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="BF5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="BG5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="BH5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="BI5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="BJ5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="BK5" s="13">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="BL5" s="13">
-        <f ca="1"/>
-        <v>5</v>
-      </c>
-      <c r="BM5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="BN5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="BO5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="BP5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="BQ5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="BR5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="BS5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="BT5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="BU5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="BV5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="BW5" s="13">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="BX5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="BY5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="BZ5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CA5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CB5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CC5" s="13">
-        <f ca="1"/>
-        <v>3</v>
-      </c>
-      <c r="CD5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CE5" s="13">
-        <f ca="1"/>
-        <v>6</v>
-      </c>
-      <c r="CF5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CG5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="CH5" s="13">
-        <f ca="1"/>
-        <v>4</v>
-      </c>
-      <c r="CI5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CJ5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="CK5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="CL5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="CM5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CN5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="CO5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CP5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CQ5" s="13">
-        <f ca="1"/>
-        <v>8</v>
-      </c>
-      <c r="CR5" s="13">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="CS5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CT5" s="13">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="CU5" s="13">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="CV5" s="13">
-        <f ca="1"/>
-        <v>10</v>
-      </c>
-      <c r="CW5" s="13">
-        <f ca="1"/>
-        <v>5</v>
+      <c r="CU5" s="7">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="CV5" s="7">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="CW5" s="7">
+        <f ca="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.4">
@@ -1074,194 +1074,194 @@
         <v>9</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14" cm="1">
+      <c r="B8" s="8" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">_xll.py_mean(InputData)</f>
-        <v>6.02</v>
-      </c>
-      <c r="C8" s="14">
+        <v>6.06</v>
+      </c>
+      <c r="C8" s="8">
         <f ca="1">AVERAGE(InputData)</f>
-        <v>6.02</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10"/>
+        <v>6.06</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14" cm="1">
+      <c r="B9" s="8" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">_xll.py_median(InputData)</f>
-        <v>7</v>
-      </c>
-      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
         <f ca="1">MEDIAN(InputData)</f>
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14" cm="1">
+      <c r="B10" s="8" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">_xll.py_mode(InputData)</f>
-        <v>9</v>
-      </c>
-      <c r="C10" s="14">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
         <f ca="1">_xlfn.MODE.SNGL(InputData)</f>
-        <v>9</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="14" cm="1">
+      <c r="B11" s="8" cm="1">
         <f t="array" aca="1" ref="B11:B13" ca="1">TRANSPOSE(_xll.py_basic_stats(InputData))</f>
-        <v>6.02</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="10"/>
+        <v>6.06</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="B12" s="14">
-        <f ca="1"/>
-        <v>7</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
+      <c r="B12" s="8">
+        <f ca="1"/>
+        <v>6</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="B13" s="14">
-        <f ca="1"/>
-        <v>9</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
+      <c r="B13" s="8">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.4">
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="12"/>
     </row>
     <row r="19" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="12"/>
     </row>
     <row r="20" spans="5:12" x14ac:dyDescent="0.4">
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1273,6 +1273,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010056A28DAB99C48B469009752D21F8474A" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d3725108ba1e248dd961cbde49d36f75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58a034177a2e5a667d336d2ca3036430" ns3:_="">
     <xsd:import namespace="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
@@ -1404,22 +1419,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C9D94B-68A3-4C5A-8543-29DBB1AA8066}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1435,28 +1459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE1A4A2-BF99-4D94-B73F-D9211460B53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B898F4E-8707-4CA2-9F8B-513D2A3B8BD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a95c0ba0-d2e6-4b25-b7d5-a719ecc5544a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>